--- a/src/test/resources/59775.xlsx
+++ b/src/test/resources/59775.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktrysinski/Workspace/excel-streaming-reader/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE63049-D8F5-2B4F-BFDD-801EE6D76C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697E2C1-E5D6-FD47-AC73-9F03C47548C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="18660" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
